--- a/EA_Modell.xlsx
+++ b/EA_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luc\Documents\GitHub\phy_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E6755-5CF5-41B8-9BF0-82443C0ECC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678D41B-C5A4-4CDE-9F24-AA5852DD3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0062F7A8-EB48-4743-A87E-2C22CBDDC75E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0062F7A8-EB48-4743-A87E-2C22CBDDC75E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -243,14 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,9 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -278,6 +275,845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38115</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>125235</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Freihand 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA39909B-AEA9-B87C-C8DB-30537D938627}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5381640" y="4039560"/>
+            <a:ext cx="87120" cy="667800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Freihand 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA39909B-AEA9-B87C-C8DB-30537D938627}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5375520" y="4033440"/>
+              <a:ext cx="99360" cy="680040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281835</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110865</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Freihand 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE0976D-3B33-324E-7820-5C2715D00E67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5026320" y="4005720"/>
+            <a:ext cx="599040" cy="553320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Freihand 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE0976D-3B33-324E-7820-5C2715D00E67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5020200" y="3999600"/>
+              <a:ext cx="611280" cy="565560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2044620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11985</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Freihand 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1905EAAC-FEDF-3F80-F4A6-D5108485F500}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3530520" y="3682440"/>
+            <a:ext cx="777240" cy="27360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Freihand 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1905EAAC-FEDF-3F80-F4A6-D5108485F500}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3524400" y="3676320"/>
+              <a:ext cx="789480" cy="39600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1998900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134265</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142755</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Freihand 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D042FA1-E6CA-5FFC-0804-35B8969B4D93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3484800" y="3607920"/>
+            <a:ext cx="183240" cy="201960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Freihand 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D042FA1-E6CA-5FFC-0804-35B8969B4D93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3478680" y="3601800"/>
+              <a:ext cx="195480" cy="214200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579585</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105390</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Freihand 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D41E7A-BD50-CB4F-B808-91CDBA6179D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4024800" y="3408120"/>
+            <a:ext cx="88560" cy="754920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Freihand 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D41E7A-BD50-CB4F-B808-91CDBA6179D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4018680" y="3402000"/>
+              <a:ext cx="100800" cy="767160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787230</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>183990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611595</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Freihand 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA62C7D9-D9DD-17B2-EF2B-50F32D893E3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5302080" y="2489040"/>
+            <a:ext cx="653040" cy="628920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Freihand 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA62C7D9-D9DD-17B2-EF2B-50F32D893E3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5295963" y="2482920"/>
+              <a:ext cx="665273" cy="641160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>966045</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Freihand 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB17C6D-08FD-7A3D-49BA-F4F84212E85B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1185120" y="2478600"/>
+            <a:ext cx="469800" cy="664560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Freihand 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB17C6D-08FD-7A3D-49BA-F4F84212E85B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1179005" y="2472480"/>
+              <a:ext cx="482031" cy="676800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>903045</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212940</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22305</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Freihand 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CCA9A9-B405-E4D6-74F1-6FD6FB81E982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1122120" y="4198680"/>
+            <a:ext cx="576720" cy="271800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Freihand 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CCA9A9-B405-E4D6-74F1-6FD6FB81E982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1116000" y="4192560"/>
+              <a:ext cx="588960" cy="284040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1101405</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>197550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>194940</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189345</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Freihand 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD9B55E-308E-9178-59BB-798F773688ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1320480" y="4255200"/>
+            <a:ext cx="360360" cy="382320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Freihand 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD9B55E-308E-9178-59BB-798F773688ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1314360" y="4249080"/>
+              <a:ext cx="372600" cy="394560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:12:37.255"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">161 8 128,'0'0'3470,"-10"0"-1275,4-3 1564,-3-1-1174,11 15 1955,7 10-1077,-4-11-4949,23 42 1922,-16-33 50,-1 1 0,-2 0 0,10 25 0,-16-35-424,-1 0 0,0 1 0,0-1 0,-1 1 0,0-1 0,-1 1 0,0-1 0,-1 1 0,0-1 0,-4 15 0,-1 38 242,6-53-287,0-1 1,0 1-1,-1-1 1,-1 0 0,1 0-1,-1 0 1,-1 0-1,0 0 1,0 0-1,-1 0 1,-9 15-1,-14 17 468,-47 69 208,67-100-640,0 1 1,2-1-1,-1 1 0,1 0 0,0 0 0,1 1 1,1-1-1,0 1 0,0 0 0,1 0 1,1 0-1,0 0 0,1 0 0,0 0 1,0 0-1,4 17 0,-2-10 24,-1 1-1,-3 27 1,-27 164 673,30-202-730,0-1-19,-12 30-1,8-27 22,1-7 63,-2 3-42,3-3 43,1 6-43,1 5 42,9 51 294,29 108 0,-21-108-66,-18-65-310,1 4 52,1 0 1,-1 0 0,-1 0 0,1 1 0,-1-1 0,1 0-1,-1 0 1,-1 1 0,1-1 0,-1 0 0,0 0-1,-3 10 1,1-12-142,-7 3 65,6-4 25,1-1-1,0 1 1,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,-1 5-1,1-2 9,0 1-1,1 0 1,0-1 0,0 1-1,1 0 1,2 7 0,-3-10-18,8 19 7,-6-22-45,0 1-234,1 2-1740,9 16-14939</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:12:45.796"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1663 1537 4112,'0'-2'369,"0"1"0,-1-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,-2-1 0,-36-18 1881,26 14-1776,-137-71 1789,60 28-150,-159-58 1,231 107-1731,18 1-373,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,1 1 0,1 24-8,-2-4 17,-6-8-40,-7 0 42,9-12 6,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0 0,0 0 0,-1-1-1,1 1 1,-1-1 0,1 0-1,-8 0 1,-4-1 107,0-1 1,-31-5-1,-43-3 123,72 11-236,6-1 193,0 2 1,0-1-1,-18 8 1,-9-1 41,-18-2-103,-1-2 1,1-3-1,-1-3 1,0-2-1,-64-12 1,53-1-279,-26-5 42,33 12-5899,39 7-3034</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1580.77">678 206 2056,'0'0'2998,"0"0"-2724,0-1 0,1 1-1,-1 0 1,1 0 0,-1-1-1,0 1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,0 1 1,0 12 608,0 1 1,-1-1-1,-3 26 0,1-25-388,1-1-1,0 1 0,1 0 0,1 0 1,3 18-1,8 7 466,2-1 0,2-1 0,2 0 0,37 59 0,-23-41-550,-15-26-333,0 0 0,2-1 0,2-1 0,44 46 0,-57-65-60,1 0 0,0-1 0,0 0-1,1 0 1,-1-1 0,2 0 0,-1-1-1,0 0 1,1-1 0,0 0 0,0-1 0,1 0-1,-1 0 1,0-1 0,1-1 0,0 0-1,20-1 1,-11-2 22,0-1-1,0-1 1,-1-1-1,0-1 1,0 0-1,0-2 0,24-12 1,-32 13-15,-1 0 0,1 0 0,-1-2 0,-1 1 0,0-1 0,0-1 0,-1 0 0,0 0 1,0-1-1,-1 0 0,-1 0 0,8-15 0,11-28 14,-3-1 1,-2 0-1,22-93 1,-37 119-22,-1-1 1,-1 1 0,-2-1-1,-1 0 1,-1 0 0,-1 0-1,-2 0 1,-13-58 0,12 76-979,0-1 0,0 1 1,-2 0-1,-8-14 1,12 22 538,0 0 0,0 0 1,-1 1-1,1 0 0,-1-1 1,0 1-1,0 0 0,-1 0 1,1 1-1,0-1 0,-1 1 1,0 0-1,0-1 0,1 2 1,-1-1-1,-5-1 0,20 20-9171</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:13:16.619"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2156 45 2827,'0'0'2163,"0"-17"-600,-14 1-2718,-3 4 13222,17 12-11875,19 19 2068,-18-18-2224,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 2 0,0-2-5,0 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0-1 0,1 1 1,-3-1-1,-8 3 194,-1 0 0,0-2 0,-21 1 0,-37-5 383,-85-15 0,-34-3-432,-125 29 155,176 0 2,99-6-330,-156 1 272,52-20-154,99 9-63,-78-2-1,-38 9-143,84 14 300,-12-17-214,71 5 22,-1 2 63,2-1-63,1 0-44,0-1-63,2-2 63,-72-6-106,12 2 128,48 4-2620,8 4-6165,9-1 4406,20-3-269</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:13:20.041"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">97 56 385,'-26'-23'6939,"26"23"-6779,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1 0 0,2-1 0,0 0 247,26-1 1776,-18 0-1968,0 1-95,0 1-1,0 0 1,0 0-1,0 1 1,0 1-1,9 2 1,17 2 200,-17-5-275,-9-1-28,-1 1 1,0 0-1,1 1 1,-1 0-1,17 5 1,-18-4 60,-1 0 1,0 0-1,-1 1 0,1-1 1,0 1-1,-1 1 1,0-1-1,0 1 0,10 11 1,47 64 1159,-27-32-969,-33-45-280,4 12-52,-15 17 30,3-16 165,1-1 0,0 1 0,0-1 0,0 20 0,2-16 76,-1 0 1,-10 33-1,11-47-149,0 0-1,0 0 0,0 0 1,-1 0-1,0-1 0,1 1 1,-2-1-1,1 0 0,0 0 1,-1 0-1,0 0 0,-4 4 1,-4-1 75,1 0 0,-1-1 0,-1 0 0,1-1 0,-25 7 1,26-9-108,0 0 1,-1-1 0,1 0 0,-1-1 0,1 0 0,-1-1 0,1 0 0,-1-1-1,-18-3 1,11-1-78,0 0 0,0-1 0,1-1 0,0-1 0,-31-19 0,29 15-76,0 4-389,14 8 128,7 13-1171,15-28-17187</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:13:33.387"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">100 0 1156,'0'0'181,"0"0"-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,-10 21 3914,-2 19-1760,-14 81 1,4 9-1030,14-89-860,1 1 1,2 1 0,2-1 0,3 74-1,73 550 1706,-4-35-1111,-55-548-3530,-11-73 1203,2 1-1,-1 0 1,1-1-1,1 1 0,6 9 1,-10-17 867,1-1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1-1,5 3 1,29 4-4700</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:13:48.215"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">671 31 2441,'-64'-31'11779,"65"34"-11635,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,0-1 1,2 4-1,7 10-90,1 7-120,7 44 574,-18-63-464,74 316 342,-55-251-321,-12-46 149,-2 0-1,0 0 0,3 42 0,-8-57-150,-1 0 0,-1-1 0,1 1 1,-1 0-1,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,-1-1 0,-6 10 0,5-9-58,1 0-1,1 0 1,-1 0 0,1 1-1,0 0 1,1 0-1,0 0 1,0 0-1,1 0 1,0 1-1,0-1 1,1 1-1,0 8 1,1 8 126,1 0 0,2 0 0,5 27 0,1 2 328,-8-46-393,0-4-36,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1 0,0-1 0,-4 5 0,-8 12-8,10-16 2,1 0 0,1 1 0,-1-1-1,0 0 1,1 1 0,0 0 0,0-1 0,1 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,0 0 0,0-1 0,0 1-1,0-1 1,4 5 0,3 10 65,2 6 91,7 19 269,2-2 0,2 0-1,42 62 1,-59-99-362,3 2-104,-1 0 1,0 1 0,-1 0 0,0 0-1,6 11 1,-10-15 14,0 1-1,0 0 1,-1 0-1,0-1 1,0 1 0,1 9-1,-2-13 3,0 0-43,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1-1 0,0 0-1,-1 1 1,-8 1-3067,2-8-5181,3-18 3537,10-10-106</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2296.79">1417 270 1927,'0'0'2442,"16"6"2312,-45-8-967,-111 5-1513,118-1-1816,-1-1-1,0-1 1,0-2-1,0 0 1,0-1-1,-38-11 1,-124-53 526,148 50-921,-1 1 0,-1 3-1,0 1 1,0 1 0,-1 3-1,-46-4 1,48 9 44,0 2 0,1 2 0,-1 2 0,1 1 1,-67 16-1,87-16-338,-1 0 1,1-2 0,-1 0 0,0 0 0,1-2-1,-23-2 1,-10-4-3659,3-4-3353,18 0 2873</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8437.2">330 1689 128,'-14'-8'7368,"13"-2"-7076,0 0 1,0 0 0,-1 0 0,0 0-1,-1 0 1,0 1 0,0-1 0,-1 1-1,-6-10 1,-6-22 3483,15 40-3633,1 0 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 0,0-1 0,-1 1 1,2-1-1,22 2 2281,-22-1-1760,-2 0-647,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 1,0-1-1,0 1 0,12-13 361,-8 0-237,0-1-1,-1 1 0,-1-1 1,0 1-1,-1-19 1,3-15 44,5-19-71,4-1 0,26-83 0,-29 119-49,2 0-1,1 1 0,1 0 1,2 1-1,0 1 0,35-44 1,-42 59 45,16-10-100,-18 17-2,-5 4-9,-1 0 0,0 1 1,1-1-1,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,4 1 0,0 0 0,14 2 9,-1 0 0,1 2 0,-1 0 0,0 1 0,20 10 0,90 49-5,-91-45-33,344 206 23,-302-171 38,-3 4 0,108 106 0,-163-143 9,-1 2 1,-2 1 0,26 38-1,-40-54-195,1 1 0,-1-1-1,0 1 1,-1 0-1,0 1 1,-1-1 0,0 1-1,-1-1 1,0 1-1,0 0 1,-1 0-1,-1 0 1,-1 17 0,1-25-405,-1-1 1,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,-3 3 0,3-6 342,1 1-1,-1 0 1,0-1-1,0 1 1,1-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,1 1 1,-1-2-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,1-1-1,-1 0 1,-1 0-1,-20-24-4922</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:14:14.934"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">567 1 128,'17'5'10050,"0"10"-5165,15 24-2134,-20-22-1183,-4-7-1249,-1 1 0,0 0 0,-1 0 0,0 0 0,0 1 0,-2 0 0,1 0 0,-1 1 0,-1-1 0,-1 1 0,1-1 0,-1 17 0,-1 3 127,-3-1 1,0 1-1,-13 57 0,9-53-184,2 0 0,2 0-1,3 69 1,24 105 350,-22-194-579,1 33-6,-2 1-1,-1-1 1,-9 61-1,0 21-25,8-50 31,-4 0 0,-4-1 0,-28 130 1,35-205-24,0-1 1,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,0 0 0,0 0 0,-5 4 0,7-7-81,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-3-1 0,2 0-291,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,1-1 1,-3-3-1,-28-42-9425,15 11 4797</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1515.57">378 1688 128,'0'0'35,"0"0"0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,-1-1 0,1 1 18,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 0-1,0 0 1,3-2 462,1 0-1,-1 0 0,0-1 1,-1 1-1,1-1 0,0 0 1,3-5-1,-4 5 83,1 0-15,-1 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 1,-1-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,-3-8 0,1-22-287,4 24-192,0 1 0,0 0 0,1 0 0,0 1 0,1-1 1,-1 0-1,1 1 0,1 0 0,0 0 0,0 0 1,0 1-1,0 0 0,11-9 0,16-23 102,-22 23-172,1 0 1,1 1 0,1 0-1,0 0 1,18-13 0,-23 21-28,1 0 1,0 1 0,0 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,0 0 0,1 1 0,20-2 0,-3 2-49,1 2 0,-1 1 0,1 1-1,-1 1 1,1 2 0,39 11 0,-46-9 60,0 1 1,0 0-1,-1 1 1,0 2-1,-1 0 1,-1 1-1,0 1 1,26 22 0,-35-24 9,-1 0 0,0 0 1,-1 1-1,0 0 1,-1 0-1,-1 0 0,0 1 1,0 0-1,-1 1 1,-1-1-1,0 1 1,2 17-1,-1 1 39,-2 1 1,-1-1-1,-1 0 1,-4 41-1,2-68-643,0 1-1,0 0 1,-1-1-1,1 1 1,-1-1 0,-1 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,-7 8 1,9-12 348,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,-1-1-1,1 1 1,-1 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,1-1 0,-1 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1-1 1,-1 1 0,1 0 0,0 0-1,-1 0 1,-1-3 0,-15-19-4655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3421.75">1129 423 1542,'0'0'100,"1"0"0,-1 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,1 0 167,2 2 2132,11 2-236,-14-3-2145,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 0-1,1 1 1,0-1 0,0 0-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0 0,0 0-1,-1 0 1,0 1-1,-23 2 1000,-30-10 1021,49 6-1779,-45-8 1615,-7-2 511,-82-4 0,121 15-2114,-1 0 1,1 1 0,0 1 0,0 0-1,0 2 1,1 0 0,-1 1 0,-29 12 0,35-12-227,-1-1 1,0 0 0,0-1 0,0 0 0,0-1 0,0-1-1,-1 0 1,1-1 0,-20-1 0,-17-5 285,-59-14 1,24 3-74,58 14-565,-1 1 1,-54 2-1,26 6-8029,45-5 1914,1-4 4598,5 2 322,-11-5-3382</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:15:25.422"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 231 4240,'1'-1'315,"-1"0"0,1 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,1 1 0,3-1 174,1 1-1,0 1 1,-1-1 0,1 1 0,9 4 0,-13-4-467,0-1 182,-1 0 0,1 0 0,0 0 0,-1 1 1,1 0-1,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,2 5 0,18 43 968,-4-10-877,23 39 0,-32-66-259,0 0 0,0 0 0,1-1-1,1 0 1,0-1 0,21 17 0,4-3-18,1-1 1,1-2-1,1-1 0,71 25 0,-39-22 12,143 29-1,-188-49-39,0-2 0,0 0 0,0-2 0,0 0 0,0-2-1,-1-1 1,1-1 0,41-13 0,-48 12 5,0-2 0,-1 0 0,1-1 1,-2-1-1,1-1 0,-1 0 0,-1-1 0,0-1 0,0-1 0,-1 0 0,24-29 0,-32 33 18,-1 0 0,0-1-1,-1 1 1,0-1 0,0 0 0,-1-1-1,-1 1 1,0-1 0,0 1-1,2-18 1,-3-4-1,-1-1 0,-3-38 0,1-46-1,2 105-5,0-1 1,1 1-1,1 0 0,0-1 0,1 1 0,0 1 0,7-15 0,-9 23-147,0-1-1,0 1 1,0 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 1 0,6-4-1,2 0-1795,0 1-1,0 1 1,1 0-1,14-4 0,8-2-2046,2-7-535</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-12-16T13:15:29.628"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">364 0 899,'0'0'5055,"-5"10"-2860,0-4 1114,3-6-3094,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 1,1 1-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 2 0,2 3 192,0 0 0,0 1-1,1-2 1,0 1-1,1 0 1,5 8-1,-8-12-384,14 23 878,-2 1-1,-1 1 1,17 57-1,-26-26-749,-3-58-132,0 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 2-1,1 1 65,1 1 1,-1-1-1,0 1 0,0 0 1,-1 0-1,4 10 0,-5-13-79,0 0 1,-1 1-1,1-1 0,0 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 0 1,0 0-1,1-1 0,-3 3 0,-3 4 24,3-2 3,-7 8 30,1 0 0,0 1 0,1 1 0,0-1 1,1 1-1,1 1 0,1 0 0,0-1 0,-6 33 1,-1 16 537,11-55-556,3-6 43,4 9-43,8 3 64,3-2 0,0 2-86,3 7-23,-13-15-9,-3 3-83,3 6 73,-1 3 21,-4-1 21,-1-15 11,0-1 0,1 1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-6 5 0,0-4-3,0 0-1,0 0 1,0-1-1,-1 0 1,1-1 0,-1 0-1,-16 0 1,-36 6-201,62-7 142,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,19 14-7461,-6-16 2587,-5-12-86</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1694.93">981 925 128,'-1'-3'600,"-1"-6"-214,1 6 1755,16 2 2634,-6 0 2079,-15 0-6261,1 0-1,-1-1 0,1 0 1,0 0-1,0 0 0,-7-4 1,-16-5 379,-109-24 1030,-181-21 1,290 55-1880,0 1 1,0 1-1,0 2 0,1 0 1,-54 16-1,25-7-456,1 5-1941,44-13 625,1 0 1,-1-1-1,1 0 0,-1-1 1,0 0-1,0-1 1,-17 0-1,-11-6-3191</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,9 +1413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDDAAC7-A309-428A-BBCB-490A19DEAD01}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A10:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -594,11 +1430,8 @@
     <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -610,43 +1443,43 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>19</v>
@@ -660,94 +1493,91 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -763,38 +1593,38 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -808,5 +1638,6 @@
     <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EA_Modell.xlsx
+++ b/EA_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luc\Documents\GitHub\phy_Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678D41B-C5A4-4CDE-9F24-AA5852DD3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54846FE5-317E-4446-B17A-887B599CC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0062F7A8-EB48-4743-A87E-2C22CBDDC75E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0062F7A8-EB48-4743-A87E-2C22CBDDC75E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -292,8 +292,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>59160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Freihand 1">
@@ -312,7 +312,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Freihand 1">
@@ -357,8 +357,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>110865</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Freihand 4">
@@ -377,7 +377,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Freihand 4">
@@ -422,8 +422,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>42675</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Freihand 5">
@@ -442,7 +442,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Freihand 5">
@@ -487,8 +487,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142755</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Freihand 6">
@@ -507,7 +507,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Freihand 6">
@@ -552,8 +552,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>105390</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Freihand 9">
@@ -572,7 +572,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Freihand 9">
@@ -617,8 +617,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>31860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Freihand 16">
@@ -637,7 +637,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Freihand 16">
@@ -682,8 +682,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Freihand 21">
@@ -702,7 +702,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Freihand 21">
@@ -747,8 +747,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>22305</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Freihand 22">
@@ -767,7 +767,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Freihand 22">
@@ -812,8 +812,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>189345</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Freihand 25">
@@ -832,7 +832,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Freihand 25">
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDDAAC7-A309-428A-BBCB-490A19DEAD01}">
   <dimension ref="A10:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
